--- a/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
+++ b/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BDTPTUMCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\BDTPTUMCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED9A98-533A-401F-8B39-EF71FBE64D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F168F3A-5048-4770-91CF-87D66BBEDC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1065" windowWidth="18465" windowHeight="16935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -335,6 +338,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -757,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -770,6 +774,12 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11">
+        <v>45372</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3"/>
     </row>

--- a/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
+++ b/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\BDTPTUMCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F168F3A-5048-4770-91CF-87D66BBEDC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04853B8-0635-493E-8DCF-B383C2635296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1065" windowWidth="18465" windowHeight="16935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1125" windowWidth="19545" windowHeight="16875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11">
-        <v>45372</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
+++ b/InputData/elec/BDTPTUMCF/Boolean Does This Plant Type Use Maximum Capacity Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\BDTPTUMCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04853B8-0635-493E-8DCF-B383C2635296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{942D7BA4-15CC-4323-AA34-1A7F6842E382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1125" windowWidth="19545" windowHeight="16875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1890" windowWidth="14700" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="11">
-        <v>45446</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
